--- a/Lecture_7/Assignment_5/Elecciones_Data.xlsx
+++ b/Lecture_7/Assignment_5/Elecciones_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,876 @@
         <v>19640</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8836380</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>8792117</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>121489</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1106816</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8836380</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>8792117</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>121489</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1106816</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8836380</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8792117</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>121489</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1106816</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8836380</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8792117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>121489</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1106816</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>8836380</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>8792117</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>121489</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1106816</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8836380</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8792117</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>121489</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1106816</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2724752</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1930762</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RENOVACION POPULAR</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1692279</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1674201</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ACCION POPULAR</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1306288</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>JUNTOS POR EL PERU</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1132577</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ALIANZA PARA EL PROGRESO</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>867025</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VICTORIA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>814516</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PODEMOS PERU</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>812721</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PARTIDO MORADO</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>325608</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PERUANOS POR EL KAMBIO</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8596937</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>8555880</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>149577</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1040502</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>6115073</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PERUANOS POR EL KAMBIO</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3228661</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2874940</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ACCION POPULAR</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1069360</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ALIANZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>894278</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DEMOCRACIA DIRECTA</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>613173</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>FRENTE ESPERANZA</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>203103</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PERU POSIBLE</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>200012</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PROGRESANDO PERU</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>75870</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO ORDEN</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>65673</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GANA PERU</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4643064</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>FUERZA 2011</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>3449595</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ALIANZA POR EL GRAN CAMBIO</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2711450</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PERÚ POSIBLE</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2289561</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ALIANZA SOLIDARIDAD NACIONAL</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1440143</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FONAVISTAS DEL PERU</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>37011</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DESPERTAR NACIONAL</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>21574</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO ADELANTE</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>17301</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FUERZA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>16831</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>JUSTICIA, TECNOLOGIA, ECOLOGIA</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>11275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lecture_7/Assignment_5/Elecciones_Data.xlsx
+++ b/Lecture_7/Assignment_5/Elecciones_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,196 +453,421 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1950</t>
+          <t>PRESIDENCIAL 2000 - 2DA VUELTA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PARTIDO RESTAURADOR</t>
+          <t>ALIANZA ELECTORAL PERU 2000</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>550779</v>
+        <v>6041774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1945</t>
+          <t>PRESIDENCIAL 2000 - 2DA VUELTA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRENTE DEMOCRATICO NACIONAL</t>
+          <t>PERU POSIBLE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>305590</v>
+        <v>2086208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1945</t>
+          <t>PRESIDENCIAL 2000 - 2DA VUELTA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UNION REVOLUCIONARIA</t>
+          <t>VOTOS EN BLANCO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>150720</v>
+        <v>140773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1939</t>
+          <t>PRESIDENCIAL 2000 - 2DA VUELTA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CONCENTRACION NACIONAL</t>
+          <t>VOTOS NULOS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>262971</v>
+        <v>3531730</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1939</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRENTE PATRIOTICO</t>
+          <t>ALIANZA ELECTORAL PERU 2000</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>76222</v>
+        <v>5528394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1936</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PARTIDO SOCIAL DEMOCRATA</t>
+          <t>PERU POSIBLE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>77042</v>
+        <v>4460812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1936</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UNION REVOLUCIONARIA</t>
+          <t>MOVIMIENTO INDEPENDIENTE SOMOS PERU</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57838</v>
+        <v>333049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1936</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRENTE NACIONAL</t>
+          <t>AGRUPACION INDEPENDIENTE AVANCEMOS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46773</v>
+        <v>246781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1936</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PARTIDO REPUBLICANO</t>
+          <t>SOLIDARIDAD NACIONAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30803</v>
+        <v>199813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1931</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UNION REVOLUCIONARIA</t>
+          <t>PARTIDO APRISTA PERUANO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>152149</v>
+        <v>152519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1931</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PARTIDO APRISTA PERUANO</t>
+          <t>FRENTE POPULAR AGRICOLA FIA DEL PERU</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106088</v>
+        <v>80099</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1931</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PARTIDO DESCENTRALISTA</t>
+          <t>ACCION POPULAR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21950</v>
+        <v>46509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1931</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PARTIDO COALICION NACIONAL</t>
+          <t>AGRUPACION INDEPENDIENTE UNION POR EL PERU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19640</v>
+        <v>36541</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2000</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>708603</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CAMBIO 90 - NUEVA MAYORIA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4798515</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UNION POR EL PERU</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1624566</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PARTIDO APRISTA PERUANO</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>306108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CODE - PAIS POSIBLE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>241598</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MOVIMIENTO CIVICO NACIONAL OBRAS</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>192261</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ACCION POPULAR</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>122383</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FRENTE POPULAR AGRICOLA FIA DEL PERU</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>57556</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IZQUIERDA UNIDA</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PERU AL 2000 - FRENATRACA</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>25017</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1995</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MOVIMIENTO INDEPENDIENTE NUEVO PERU</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CAMBIO 90</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4522563</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FREDEMO</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2713442</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>136421</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>627552</v>
       </c>
     </row>
   </sheetData>

--- a/Lecture_7/Assignment_5/Elecciones_Data.xlsx
+++ b/Lecture_7/Assignment_5/Elecciones_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,576 @@
         <v>627552</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8836380</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>8792117</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>121489</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1106816</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2724752</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1930762</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RENOVACION POPULAR</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1692279</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1674201</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ACCION POPULAR</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1306288</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>JUNTOS POR EL PERU</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1132577</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ALIANZA PARA EL PROGRESO</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>867025</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VICTORIA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>814516</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PODEMOS PERU</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>812721</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2021</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PARTIDO MORADO</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>325608</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PERUANOS POR EL KAMBIO</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>8596937</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>8555880</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VOTOS EN BLANCO</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>149577</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>VOTOS NULOS</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1040502</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FUERZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6115073</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PERUANOS POR EL KAMBIO</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3228661</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2874940</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ACCION POPULAR</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1069360</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ALIANZA POPULAR</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>894278</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DEMOCRACIA DIRECTA</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>613173</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FRENTE ESPERANZA</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>203103</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PERU POSIBLE</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>200012</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PROGRESANDO PERU</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>75870</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2016</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO ORDEN</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>65673</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GANA PERU</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4643064</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>FUERZA 2011</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3449595</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ALIANZA POR EL GRAN CAMBIO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2711450</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PERÚ POSIBLE</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2289561</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ALIANZA SOLIDARIDAD NACIONAL</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1440143</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>FONAVISTAS DEL PERU</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>37011</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DESPERTAR NACIONAL</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>21574</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>PARTIDO POLITICO ADELANTE</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>17301</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FUERZA NACIONAL</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>16831</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PRESIDENCIAL 2011</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>JUSTICIA, TECNOLOGIA, ECOLOGIA</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>11275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lecture_7/Assignment_5/Elecciones_Data.xlsx
+++ b/Lecture_7/Assignment_5/Elecciones_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,151 +453,151 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALIANZA ELECTORAL PERU 2000</t>
+          <t>PERU POSIBLE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6041774</v>
+        <v>3871167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PERU POSIBLE</t>
+          <t>PARTIDO APRISTA PERUANO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2086208</v>
+        <v>2732857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VOTOS EN BLANCO</t>
+          <t>ALIANZA ELECTORAL UNIDAD NACIONAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>140773</v>
+        <v>2576653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VOTOS NULOS</t>
+          <t>FRENTE INDEPENDIENTE MORALIZADOR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3531730</v>
+        <v>1044207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALIANZA ELECTORAL PERU 2000</t>
+          <t>ALIANZA ELECTORAL SOLUCION POPULAR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5528394</v>
+        <v>179243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PERU POSIBLE</t>
+          <t>PARTIDO RENACIMIENTO ANDINO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4460812</v>
+        <v>85436</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MOVIMIENTO INDEPENDIENTE SOMOS PERU</t>
+          <t>PARTIDO PROYECTO PAIS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>333049</v>
+        <v>79077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AGRUPACION INDEPENDIENTE AVANCEMOS</t>
+          <t>TODOS POR LA VICTORIA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>246781</v>
+        <v>33080</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SOLIDARIDAD NACIONAL</t>
+          <t>VOTOS EN BLANCO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>199813</v>
+        <v>1260193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2000</t>
+          <t>PRESIDENCIAL 2001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PARTIDO APRISTA PERUANO</t>
+          <t>VOTOS NULOS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>152519</v>
+        <v>402436</v>
       </c>
     </row>
     <row r="12">
@@ -608,11 +608,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRENTE POPULAR AGRICOLA FIA DEL PERU</t>
+          <t>ALIANZA ELECTORAL PERU 2000</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>80099</v>
+        <v>5528394</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ACCION POPULAR</t>
+          <t>PERU POSIBLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46509</v>
+        <v>4460812</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AGRUPACION INDEPENDIENTE UNION POR EL PERU</t>
+          <t>MOVIMIENTO INDEPENDIENTE SOMOS PERU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>36541</v>
+        <v>333049</v>
       </c>
     </row>
     <row r="15">
@@ -653,101 +653,101 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VOTOS EN BLANCO</t>
+          <t>AGRUPACION INDEPENDIENTE AVANCEMOS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>708603</v>
+        <v>246781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1995</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CAMBIO 90 - NUEVA MAYORIA</t>
+          <t>SOLIDARIDAD NACIONAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4798515</v>
+        <v>199813</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1995</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UNION POR EL PERU</t>
+          <t>PARTIDO APRISTA PERUANO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1624566</v>
+        <v>152519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1995</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PARTIDO APRISTA PERUANO</t>
+          <t>FRENTE POPULAR AGRICOLA FIA DEL PERU</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>306108</v>
+        <v>80099</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1995</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CODE - PAIS POSIBLE</t>
+          <t>ACCION POPULAR</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>241598</v>
+        <v>46509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1995</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MOVIMIENTO CIVICO NACIONAL OBRAS</t>
+          <t>AGRUPACION INDEPENDIENTE UNION POR EL PERU</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>192261</v>
+        <v>36541</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1995</t>
+          <t>PRESIDENCIAL 2000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ACCION POPULAR</t>
+          <t>VOTOS EN BLANCO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>122383</v>
+        <v>708603</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRENTE POPULAR AGRICOLA FIA DEL PERU</t>
+          <t>CAMBIO 90 - NUEVA MAYORIA</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>57556</v>
+        <v>4798515</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IZQUIERDA UNIDA</t>
+          <t>UNION POR EL PERU</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42686</v>
+        <v>1624566</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PERU AL 2000 - FRENATRACA</t>
+          <t>PARTIDO APRISTA PERUANO</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25017</v>
+        <v>306108</v>
       </c>
     </row>
     <row r="25">
@@ -803,641 +803,161 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MOVIMIENTO INDEPENDIENTE NUEVO PERU</t>
+          <t>CODE - PAIS POSIBLE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9999</v>
+        <v>241598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 1995</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CAMBIO 90</t>
+          <t>MOVIMIENTO CIVICO NACIONAL OBRAS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4522563</v>
+        <v>192261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 1995</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FREDEMO</t>
+          <t>ACCION POPULAR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2713442</v>
+        <v>122383</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 1995</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VOTOS EN BLANCO</t>
+          <t>FRENTE POPULAR AGRICOLA FIA DEL PERU</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>136421</v>
+        <v>57556</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 1995</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VOTOS NULOS</t>
+          <t>IZQUIERDA UNIDA</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>627552</v>
+        <v>42686</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 1995</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+          <t>PERU AL 2000 - FRENATRACA</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8836380</v>
+        <v>25017</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 1995</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FUERZA POPULAR</t>
+          <t>MOVIMIENTO INDEPENDIENTE NUEVO PERU</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8792117</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VOTOS EN BLANCO</t>
+          <t>CAMBIO 90</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>121489</v>
+        <v>4522563</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2021 - 2DA VUELTA</t>
+          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>VOTOS NULOS</t>
+          <t>FREDEMO</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1106816</v>
+        <v>2713442</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2021</t>
+          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PARTIDO POLITICO NACIONAL PERU LIBRE</t>
+          <t>VOTOS EN BLANCO</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2724752</v>
+        <v>136421</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRESIDENCIAL 2021</t>
+          <t>PRESIDENCIAL 1990 - 2DA VUELTA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FUERZA POPULAR</t>
+          <t>VOTOS NULOS</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1930762</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2021</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>RENOVACION POPULAR</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1692279</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2021</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AVANZA PAIS - PARTIDO DE INTEGRACION SOCIAL</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1674201</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2021</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ACCION POPULAR</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1306288</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2021</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>JUNTOS POR EL PERU</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1132577</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2021</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ALIANZA PARA EL PROGRESO</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>867025</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2021</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>VICTORIA NACIONAL</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>814516</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2021</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>PODEMOS PERU</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>812721</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2021</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>PARTIDO MORADO</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>325608</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>PERUANOS POR EL KAMBIO</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>8596937</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>FUERZA POPULAR</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>8555880</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>VOTOS EN BLANCO</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>149577</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016 - 2DA VUELTA</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>VOTOS NULOS</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1040502</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>FUERZA POPULAR</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>6115073</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>PERUANOS POR EL KAMBIO</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>3228661</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>EL FRENTE AMPLIO POR JUSTICIA, VIDA Y LIBERTAD</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>2874940</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ACCION POPULAR</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1069360</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ALIANZA POPULAR</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>894278</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DEMOCRACIA DIRECTA</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>613173</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>FRENTE ESPERANZA</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>203103</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PERU POSIBLE</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>200012</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PROGRESANDO PERU</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>75870</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2016</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PARTIDO POLITICO ORDEN</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>65673</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>GANA PERU</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>4643064</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>FUERZA 2011</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>3449595</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ALIANZA POR EL GRAN CAMBIO</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>2711450</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>PERÚ POSIBLE</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>2289561</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ALIANZA SOLIDARIDAD NACIONAL</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1440143</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>FONAVISTAS DEL PERU</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>37011</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DESPERTAR NACIONAL</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>21574</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>PARTIDO POLITICO ADELANTE</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>17301</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>FUERZA NACIONAL</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>16831</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>PRESIDENCIAL 2011</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>JUSTICIA, TECNOLOGIA, ECOLOGIA</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>11275</v>
+        <v>627552</v>
       </c>
     </row>
   </sheetData>
